--- a/biology/Zoologie/Michelle_Harvey/Michelle_Harvey.xlsx
+++ b/biology/Zoologie/Michelle_Harvey/Michelle_Harvey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michelle Louise Harvey, née le 21 février 1978 à Brisbane, est une scientifique australienne de la police spécialisée en entomologie médico-légale (utilisation d'insectes dans les enquêtes sur les délits)[1],[2]. Ses recherches utilisent l'ADN d'insectes pour identifier les asticots, ce qui aide à estimer le temps écoulé après la mort d'un individu[3],[4]. Harvey a publié de nombreux articles sur ses recherches et elle a été invitée à participer à de nombreuses conférences. Elle est active dans la promotion de la science à travers ses prises de paroles en public ainsi que dans les médias. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michelle Louise Harvey, née le 21 février 1978 à Brisbane, est une scientifique australienne de la police spécialisée en entomologie médico-légale (utilisation d'insectes dans les enquêtes sur les délits),. Ses recherches utilisent l'ADN d'insectes pour identifier les asticots, ce qui aide à estimer le temps écoulé après la mort d'un individu,. Harvey a publié de nombreux articles sur ses recherches et elle a été invitée à participer à de nombreuses conférences. Elle est active dans la promotion de la science à travers ses prises de paroles en public ainsi que dans les médias. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harvey a terminé son doctorat dans les sciences de la criminalistique en 2006 à l'université d'Australie-Occidentale (UWA) et a obtenu son diplôme en mars 2007[5]. Entre 2006 et 2012, elle a été maîtresse de conférences en biologie légale à l'université de Portsmouth[1],[2] recherchant les relations moléculaires entre les principaux calliphoridés. Depuis, elle est retournée en Australie pour poursuivre ses recherches à l'université Deakin de Geelong[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harvey a terminé son doctorat dans les sciences de la criminalistique en 2006 à l'université d'Australie-Occidentale (UWA) et a obtenu son diplôme en mars 2007. Entre 2006 et 2012, elle a été maîtresse de conférences en biologie légale à l'université de Portsmouth, recherchant les relations moléculaires entre les principaux calliphoridés. Depuis, elle est retournée en Australie pour poursuivre ses recherches à l'université Deakin de Geelong. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distinctions et prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2004 : Prix Brownes Western Australian récompensant la femme de l'année dans les sciences[5]
-2003 : Recherches récompensées par l'association Américaine-Australienne[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2004 : Prix Brownes Western Australian récompensant la femme de l'année dans les sciences
+2003 : Recherches récompensées par l'association Américaine-Australienne</t>
         </is>
       </c>
     </row>
